--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Procesos/Matriz-de-responsabilidades.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Procesos/Matriz-de-responsabilidades.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="16515" windowHeight="6210" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="16515" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Control de Cambios" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t xml:space="preserve">Actividad </t>
   </si>
@@ -144,13 +144,16 @@
   </si>
   <si>
     <t>poner todas las actividades del wbs …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA y Asociados </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +229,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -442,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -518,6 +528,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -527,66 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -597,6 +607,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -617,41 +630,42 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1181100</xdr:rowOff>
+      <xdr:rowOff>1514474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="0 Imagen"/>
+        <xdr:cNvPr id="3" name="2 Imagen" descr="F:\logo.jpg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="20675" t="22801" r="17662" b="27828"/>
+        <a:srcRect l="17828" t="21111" r="16324" b="30000"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2590801" y="228600"/>
-          <a:ext cx="2324100" cy="1143000"/>
+          <a:off x="1876426" y="276223"/>
+          <a:ext cx="4457700" cy="1428751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -954,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,13 +980,31 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -988,60 +1020,60 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1063,11 +1095,11 @@
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="35">
+      <c r="F11" s="32">
         <v>1.2</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1078,11 +1110,11 @@
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1093,11 +1125,11 @@
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="36">
+      <c r="F13" s="31">
         <v>42144</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1108,26 +1140,26 @@
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1138,9 +1170,9 @@
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1157,14 +1189,14 @@
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1185,16 +1217,16 @@
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
-      <c r="F20" s="36">
+      <c r="F20" s="31">
         <v>42144</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1203,9 +1235,9 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1222,14 +1254,14 @@
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1250,16 +1282,16 @@
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="36">
+      <c r="F25" s="31">
         <v>42145</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1268,9 +1300,9 @@
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1287,14 +1319,14 @@
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1328,11 +1360,11 @@
       <c r="E30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,11 +1377,11 @@
       <c r="E31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="15"/>
@@ -1373,9 +1405,9 @@
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1397,11 +1429,11 @@
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
-      <c r="F36" s="35">
+      <c r="F36" s="32">
         <v>1</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1412,11 +1444,11 @@
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1427,11 +1459,11 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="34"/>
-      <c r="F38" s="36">
+      <c r="F38" s="31">
         <v>42144</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1442,11 +1474,11 @@
       </c>
       <c r="D39" s="34"/>
       <c r="E39" s="34"/>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1457,9 +1489,9 @@
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1476,14 +1508,14 @@
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1511,9 +1543,9 @@
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1522,9 +1554,9 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,7 +1571,40 @@
       <c r="I46" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C5:H7"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F31:H31"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="C2:H2"/>
@@ -1556,38 +1621,6 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C5:H7"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1598,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
